--- a/Documentation/Compressor Options/Air Compressor Spread sheet.xlsx
+++ b/Documentation/Compressor Options/Air Compressor Spread sheet.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Average (amps)</t>
   </si>
@@ -50,10 +50,31 @@
     <t>Tool Shop 2-Gallon Air Compressor</t>
   </si>
   <si>
-    <t>Tool Shop 5- Gallon Air Compressor</t>
-  </si>
-  <si>
     <t>Pressure (Kpa)</t>
+  </si>
+  <si>
+    <t>Air Flow (cfm)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://www.menards.com/main/tools-hardware/power-tools/compressors-and-pneumatic-tools/compressors/tool-shop-6-gallon-air-compressor-with-13-pc-accessory-kit/p-1442768.htm</t>
+  </si>
+  <si>
+    <t>http://www.menards.com/main/tools-hardware/power-tools/pneumatic/2-gallon-air-compressor/p-1442765.htm</t>
+  </si>
+  <si>
+    <t>http://www.homedepot.com/p/Porter-Cable-6-gal-150-psi-Portable-Air-Compressor-C2002/203162815</t>
+  </si>
+  <si>
+    <t>6 gal. 150 psi Portable Air Compressor</t>
+  </si>
+  <si>
+    <t>3 gal. Horizontal Air Compressor</t>
+  </si>
+  <si>
+    <t>http://www.homedepot.com/p/Campbell-Hausfeld-3-gal-Horizontal-Air-Compressor-FP209499AV/203002168</t>
   </si>
 </sst>
 </file>
@@ -63,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +108,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +138,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -115,14 +148,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -403,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -415,12 +452,13 @@
     <col min="2" max="2" width="36.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -428,16 +466,22 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -450,79 +494,138 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
-        <f>E2*6.89475729</f>
+      <c r="G2">
+        <f>F2*6.89475729</f>
         <v>689.475729</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>70</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <f>F3*6.89475729</f>
+        <v>758.42330190000007</v>
+      </c>
+      <c r="H3" s="1">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4">
+        <v>2.6</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <f>F4*6.89475729</f>
+        <v>1034.2135935000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>149</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
         <v>125</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">E3*6.89475729</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="0">F5*6.89475729</f>
         <v>861.84466125000006</v>
       </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>689.475729</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H6" s="1">
         <v>54</v>
       </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>125</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>861.84466125000006</v>
-      </c>
-      <c r="G5" s="1">
-        <v>23</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
